--- a/biology/Botanique/Trochosiraceae/Trochosiraceae.xlsx
+++ b/biology/Botanique/Trochosiraceae/Trochosiraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trochosiraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Thalassiosirales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Trochosira, composé du préfixe troch- (du grec τροχ / troch, « roue ; disque »), et du suffixe -sira, « corde, chaine ».
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Trochosira, est un genre fossile dont les espèces ont été identifiés dans des sédiments océaniques situés dans les océans Arctique, Pacifique et Atlantique, et les étages géologiques Crétacé et Éocène[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Trochosira, est un genre fossile dont les espèces ont été identifiés dans des sédiments océaniques situés dans les océans Arctique, Pacifique et Atlantique, et les étages géologiques Crétacé et Éocène. 
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (20 août 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (20 août 2022) :
 Trisystema S.Komura, 2005
 Trisystema multicirculare Komura, 2005
 Trochosira Kitton, 1871
@@ -636,9 +656,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Trochosiraceae Gleser, 1992[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Trochosiraceae Gleser, 1992.
 </t>
         </is>
       </c>
